--- a/ShareFish测试用例.xlsx
+++ b/ShareFish测试用例.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="9300" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="登录" sheetId="2" r:id="rId2"/>
     <sheet name="上传物品页" sheetId="3" r:id="rId3"/>
     <sheet name="发布需求页" sheetId="4" r:id="rId4"/>
+    <sheet name="消息详情" sheetId="5" r:id="rId5"/>
+    <sheet name="充值余额" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="316">
   <si>
     <t>ID</t>
   </si>
@@ -73,7 +75,7 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
@@ -102,7 +104,7 @@
   <si>
     <t>1、昵称：
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
@@ -143,13 +145,59 @@
   <si>
     <t>1、昵称：kkk uu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
   </si>
   <si>
     <t>reg_005</t>
+  </si>
+  <si>
+    <t>昵称纯数字</t>
+  </si>
+  <si>
+    <t>1、昵称纯数字
+2、输入正确的邮箱
+3、输入正确的验证码
+4、输入正确的密码
+5、输入正确的确认密码
+6、勾选用户协议
+7、点击注册</t>
+  </si>
+  <si>
+    <t>1、昵称：12345678
+2、邮箱号：2696455793@qq.com
+3、验证码：528249
+4、密码：123456abc
+5、确认密码：123456abc
+6、勾选用户协议</t>
+  </si>
+  <si>
+    <t>reg_006</t>
+  </si>
+  <si>
+    <t>昵称包含特殊字符</t>
+  </si>
+  <si>
+    <t>1、昵称包含特殊字符
+2、输入正确的邮箱
+3、输入正确的验证码
+4、输入正确的密码
+5、输入正确的确认密码
+6、勾选用户协议
+7、点击注册</t>
+  </si>
+  <si>
+    <t>1、昵称：kkkuu#
+2、邮箱号：2696455793@qq.com
+3、验证码：528249
+4、密码：123456abc
+5、确认密码：123456abc
+6、勾选用户协议</t>
+  </si>
+  <si>
+    <t>reg_007</t>
   </si>
   <si>
     <t>邮箱为空</t>
@@ -166,7 +214,7 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
@@ -175,7 +223,7 @@
     <t>提示：邮箱格式填写错误！</t>
   </si>
   <si>
-    <t>reg_006</t>
+    <t>reg_008</t>
   </si>
   <si>
     <t>邮箱重复注册</t>
@@ -190,7 +238,7 @@
 7、点击注册</t>
   </si>
   <si>
-    <t>reg_007</t>
+    <t>reg_009</t>
   </si>
   <si>
     <t>邮箱地址为纯数字</t>
@@ -207,13 +255,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_008</t>
+    <t>reg_010</t>
   </si>
   <si>
     <t>邮箱地址为纯字母</t>
@@ -230,13 +278,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：aaaqqqwww
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_009</t>
+    <t>reg_011</t>
   </si>
   <si>
     <t>邮箱地址包含空格</t>
@@ -253,13 +301,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696 455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_010</t>
+    <t>reg_012</t>
   </si>
   <si>
     <t>邮箱地址包含特殊字符</t>
@@ -276,13 +324,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：kkkuu_！@￥%￥#@123456
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_011</t>
+    <t>reg_013</t>
   </si>
   <si>
     <t>邮箱地址大于12位</t>
@@ -299,13 +347,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793111222@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_012</t>
+    <t>reg_014</t>
   </si>
   <si>
     <t>邮箱地址小于6位</t>
@@ -322,13 +370,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：asd12
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_013</t>
+    <t>reg_015</t>
   </si>
   <si>
     <t>验证码为空</t>
@@ -354,7 +402,7 @@
     <t>提示：验证码输入错误！</t>
   </si>
   <si>
-    <t>reg_014</t>
+    <t>reg_016</t>
   </si>
   <si>
     <t>图片验证码填写不一致</t>
@@ -371,13 +419,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：1234
+3、验证码：123456
 4、密码：123456abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_015</t>
+    <t>reg_017</t>
   </si>
   <si>
     <t>密码为空</t>
@@ -394,7 +442,7 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：
 5、确认密码：123456abc
 6、勾选用户协议</t>
@@ -403,7 +451,7 @@
     <t>提示：密码格式填写错误！</t>
   </si>
   <si>
-    <t>reg_016</t>
+    <t>reg_018</t>
   </si>
   <si>
     <t>密码包含空格</t>
@@ -420,13 +468,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456 abc
 5、确认密码：123456abc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_017</t>
+    <t>reg_019</t>
   </si>
   <si>
     <t>密码大于12个字符</t>
@@ -443,13 +491,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abcd111222333
 5、确认密码：123456abcd111222333
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_018</t>
+    <t>reg_020</t>
   </si>
   <si>
     <t>密码小于6个字符</t>
@@ -466,13 +514,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：12345
 5、确认密码：12345
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_019</t>
+    <t>reg_021</t>
   </si>
   <si>
     <t>密码为纯数字</t>
@@ -489,13 +537,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：12345678
 5、确认密码：12345678
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_020</t>
+    <t>reg_022</t>
   </si>
   <si>
     <t>密码为纯字母</t>
@@ -512,13 +560,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：abcaaabbb
 5、确认密码：abcaaabbb
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_021</t>
+    <t>reg_023</t>
   </si>
   <si>
     <t>密码包含特殊字符</t>
@@ -535,13 +583,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：kkkuu%￥123456
 5、确认密码：kkkuu%￥123456
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_022</t>
+    <t>reg_024</t>
   </si>
   <si>
     <t>确认密码为空</t>
@@ -558,7 +606,7 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：
 6、勾选用户协议</t>
@@ -567,7 +615,7 @@
     <t>提示：输入了不同的密码！</t>
   </si>
   <si>
-    <t>reg_023</t>
+    <t>reg_025</t>
   </si>
   <si>
     <t>确认密码包含空格</t>
@@ -584,13 +632,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456 abc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_024</t>
+    <t>reg_026</t>
   </si>
   <si>
     <t>确认密码未区分大小写</t>
@@ -607,13 +655,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456ABc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_025</t>
+    <t>reg_027</t>
   </si>
   <si>
     <t>确认密码小于6个字符</t>
@@ -630,13 +678,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：12345
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_026</t>
+    <t>reg_028</t>
   </si>
   <si>
     <t>确认密码大于12个字符</t>
@@ -653,13 +701,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc111222
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_027</t>
+    <t>reg_029</t>
   </si>
   <si>
     <t>确认密码纯数字</t>
@@ -676,13 +724,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_028</t>
+    <t>reg_030</t>
   </si>
   <si>
     <t>确认密码纯字母</t>
@@ -699,13 +747,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：aaabbbccc
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_029</t>
+    <t>reg_031</t>
   </si>
   <si>
     <t>确认密码包含特殊字符</t>
@@ -722,13 +770,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：kkkuu%￥123456
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_030</t>
+    <t>reg_032</t>
   </si>
   <si>
     <t>两次密码不一致</t>
@@ -745,13 +793,13 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abcdd
 6、勾选用户协议</t>
   </si>
   <si>
-    <t>reg_031</t>
+    <t>reg_033</t>
   </si>
   <si>
     <t>用户协议</t>
@@ -768,7 +816,7 @@
   <si>
     <t>1、昵称：kkkuu
 2、邮箱号：2696455793@qq.com
-3、验证码：8920
+3、验证码：528249
 4、密码：123456abc
 5、确认密码：123456abc
 6、不勾选用户协议</t>
@@ -1300,15 +1348,216 @@
     <t>1、物品类别：相机数码
 2、需求描述：</t>
   </si>
+  <si>
+    <t>chat_001</t>
+  </si>
+  <si>
+    <t>聊天室</t>
+  </si>
+  <si>
+    <t>消息发送成功</t>
+  </si>
+  <si>
+    <t>1、网络正常
+2、用户已登录
+3、打开消息详情页</t>
+  </si>
+  <si>
+    <t>1、选择消息框
+2、填写正确的数据
+3、点击发送按钮</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>消息发送失败</t>
+  </si>
+  <si>
+    <t>chat_002</t>
+  </si>
+  <si>
+    <t>消息为空</t>
+  </si>
+  <si>
+    <t>1、选择消息框
+2、不填
+3、点击发送按钮</t>
+  </si>
+  <si>
+    <t>chat_003</t>
+  </si>
+  <si>
+    <t>发送汉字、英文、数字、表情、特殊字符</t>
+  </si>
+  <si>
+    <t>1、选择消息框
+2、填写数据
+3、点击发送按钮</t>
+  </si>
+  <si>
+    <t>你好lallalalalal212</t>
+  </si>
+  <si>
+    <t>chat_004</t>
+  </si>
+  <si>
+    <t>长度限制</t>
+  </si>
+  <si>
+    <t>asdfghjkl</t>
+  </si>
+  <si>
+    <t>chat_005</t>
+  </si>
+  <si>
+    <t>接收消息</t>
+  </si>
+  <si>
+    <t>1、网络正常
+2、用户已登录
+3、打开消息列表页</t>
+  </si>
+  <si>
+    <t>1、选择消息框
+2、进入查看</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>消息接收成功</t>
+  </si>
+  <si>
+    <t>chat_006</t>
+  </si>
+  <si>
+    <t>删除消息</t>
+  </si>
+  <si>
+    <t>1、网络正常
+2、用户已登录
+3、打开消息详情页
+4、有消息记录</t>
+  </si>
+  <si>
+    <t>1、选择一条消息框
+2、点击删除</t>
+  </si>
+  <si>
+    <t>消息删除成功</t>
+  </si>
+  <si>
+    <t>pay_001</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>充值成功</t>
+  </si>
+  <si>
+    <t>1、网络正常
+2、用户已登录
+3、打开充值余额页</t>
+  </si>
+  <si>
+    <t>1、点击输入框
+2、输入正确的金额
+3、点击充值按钮</t>
+  </si>
+  <si>
+    <t>金额：10</t>
+  </si>
+  <si>
+    <t>pay_002</t>
+  </si>
+  <si>
+    <t>金额输入为空</t>
+  </si>
+  <si>
+    <t>1、点击输入框
+2、输入金额
+3、点击充值按钮</t>
+  </si>
+  <si>
+    <t>金额：</t>
+  </si>
+  <si>
+    <t>充值失败</t>
+  </si>
+  <si>
+    <t>pay_003</t>
+  </si>
+  <si>
+    <t>金额输入0</t>
+  </si>
+  <si>
+    <t>金额：0</t>
+  </si>
+  <si>
+    <t>pay_004</t>
+  </si>
+  <si>
+    <t>金额输入为负值</t>
+  </si>
+  <si>
+    <t>金额：-1</t>
+  </si>
+  <si>
+    <t>pay_005</t>
+  </si>
+  <si>
+    <t>金额输入存在空格</t>
+  </si>
+  <si>
+    <t>金额：1 0</t>
+  </si>
+  <si>
+    <t>pay_006</t>
+  </si>
+  <si>
+    <t>金额输入特殊字符</t>
+  </si>
+  <si>
+    <t>金额：10@#</t>
+  </si>
+  <si>
+    <t>pay_007</t>
+  </si>
+  <si>
+    <t>金额输入汉字或者字母</t>
+  </si>
+  <si>
+    <t>金额：10元/10yuan</t>
+  </si>
+  <si>
+    <t>pay_008</t>
+  </si>
+  <si>
+    <t>金额输入超过最大位数</t>
+  </si>
+  <si>
+    <t>金额：10000000</t>
+  </si>
+  <si>
+    <t>pay_009</t>
+  </si>
+  <si>
+    <t>金额的小数点后面超过两位</t>
+  </si>
+  <si>
+    <t>金额：10.001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1327,17 +1576,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,20 +1592,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1373,13 +1606,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1387,15 +1613,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1416,9 +1634,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,9 +1666,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,15 +1705,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1471,14 +1720,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1493,7 +1742,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,31 +1766,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,43 +1802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,49 +1820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,31 +1850,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,7 +1949,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1722,30 +1965,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1774,6 +1993,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1785,6 +2013,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1807,10 +2050,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1819,141 +2062,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1961,16 +2207,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2295,949 +2550,1007 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.88888888888889" style="4"/>
-    <col min="4" max="4" width="16.6666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.7777777777778" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30" style="5" customWidth="1"/>
-    <col min="7" max="7" width="30.8888888888889" style="5" customWidth="1"/>
-    <col min="8" max="9" width="17.7777777777778" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="4"/>
+    <col min="1" max="3" width="8.88888888888889" style="9"/>
+    <col min="4" max="4" width="16.6666666666667" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.7777777777778" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30" style="10" customWidth="1"/>
+    <col min="7" max="7" width="30.8888888888889" style="10" customWidth="1"/>
+    <col min="8" max="9" width="17.7777777777778" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="117" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="100.8" spans="1:9">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" ht="100.8" spans="1:9">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="100.8" spans="1:9">
+      <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" ht="100.8" spans="1:9">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="100.8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="100.8" spans="1:9">
+      <c r="A9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" ht="100.8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" ht="100.8" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" ht="100.8" spans="1:9">
-      <c r="A9" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="I10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="100.8" spans="1:9">
+      <c r="A11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" ht="100.8" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" ht="100.8" spans="1:9">
+      <c r="A12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="100.8" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" ht="100.8" spans="1:9">
+      <c r="A13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" ht="100.8" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" ht="100.8" spans="1:9">
+      <c r="A14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" ht="100.8" spans="1:9">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="100.8" spans="1:9">
+      <c r="A15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="C15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" ht="100.8" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="100.8" spans="1:9">
+      <c r="A16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" ht="100.8" spans="1:9">
-      <c r="A15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" ht="100.8" spans="1:9">
+      <c r="A17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" ht="100.8" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" ht="100.8" spans="1:9">
+      <c r="A18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" ht="100.8" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="F18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" ht="100.8" spans="1:9">
+      <c r="A19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" ht="100.8" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" ht="100.8" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" ht="100.8" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="I20" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" ht="100.8" spans="1:9">
+      <c r="A21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" ht="100.8" spans="1:9">
-      <c r="A20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="F21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" ht="100.8" spans="1:9">
+      <c r="A22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="F22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="100.8" spans="1:9">
-      <c r="A21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="23" ht="100.8" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="F23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="100.8" spans="1:9">
-      <c r="A22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="24" ht="100.8" spans="1:9">
+      <c r="A24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="C24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" ht="100.8" spans="1:9">
-      <c r="A23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="F24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" ht="100.8" spans="1:9">
+      <c r="A25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="C25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" ht="100.8" spans="1:9">
-      <c r="A24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="F25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" ht="100.8" spans="1:9">
+      <c r="A26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="C26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" ht="100.8" spans="1:9">
-      <c r="A25" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="F26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" ht="100.8" spans="1:9">
+      <c r="A27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="C27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" ht="100.8" spans="1:9">
-      <c r="A26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="I27" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" ht="100.8" spans="1:9">
+      <c r="A28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" ht="100.8" spans="1:9">
-      <c r="A27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="F28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" ht="100.8" spans="1:9">
+      <c r="A29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="C29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" ht="100.8" spans="1:9">
-      <c r="A28" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="F29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" ht="100.8" spans="1:9">
+      <c r="A30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" ht="100.8" spans="1:9">
-      <c r="A29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="F30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" ht="100.8" spans="1:9">
+      <c r="A31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" ht="100.8" spans="1:9">
-      <c r="A30" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="F31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" ht="100.8" spans="1:9">
+      <c r="A32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="C32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" ht="100.8" spans="1:9">
-      <c r="A31" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="F32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" ht="100.8" spans="1:9">
+      <c r="A33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="C33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" ht="100.8" spans="1:9">
-      <c r="A32" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="F33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" ht="100.8" spans="1:9">
+      <c r="A34" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="C34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>141</v>
+      <c r="F34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3265,143 +3578,143 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="3" width="8.88888888888889" style="4"/>
-    <col min="4" max="4" width="23.3333333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5555555555556" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.5555555555556" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.8888888888889" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.8888888888889" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="4"/>
+    <col min="1" max="3" width="8.88888888888889" style="9"/>
+    <col min="4" max="4" width="23.3333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.5555555555556" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.5555555555556" style="10" customWidth="1"/>
+    <col min="7" max="7" width="22.8888888888889" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.8888888888889" style="10" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="100.8" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" ht="72" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" ht="86.4" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="D2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="1:9">
+      <c r="A3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" ht="100.8" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="5:5">
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" ht="28.8" spans="5:5">
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" ht="28.8" spans="5:5">
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" ht="28.8" spans="5:5">
-      <c r="E8" s="6"/>
+      <c r="F3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3422,8 +3735,8 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3437,583 +3750,583 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="130" customHeight="1" spans="1:9">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:9">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="1:9">
       <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>172</v>
+      <c r="F4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" ht="100.8" spans="1:9">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="100.8" spans="1:9">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>172</v>
+      <c r="I6" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:9">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>172</v>
+        <v>190</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" ht="100.8" spans="1:9">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>172</v>
+        <v>194</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9" ht="115.2" spans="1:9">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>172</v>
+        <v>198</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" ht="100.8" spans="1:9">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>172</v>
+        <v>202</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11" ht="115.2" spans="1:9">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>172</v>
+        <v>206</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="12" ht="100.8" spans="1:9">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="13" ht="100.8" spans="1:9">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>205</v>
+        <v>215</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="14" ht="100.8" spans="1:9">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>205</v>
+      <c r="I14" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" ht="100.8" spans="1:9">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="16" ht="100.8" spans="1:9">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>205</v>
+        <v>226</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="17" ht="115.2" spans="1:9">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>205</v>
+        <v>230</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="18" ht="100.8" spans="1:9">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>205</v>
+        <v>234</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="19" ht="115.2" spans="1:9">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>205</v>
+        <v>238</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="20" ht="100.8" spans="1:9">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4036,7 +4349,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -4050,95 +4363,664 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="72" spans="1:9">
+    <row r="2" ht="43.2" spans="1:9">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" ht="57.6" spans="1:9">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:9">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>237</v>
+      <c r="I3" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="5:6">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"注册,轮播图,购物车,登录,前台下单,后台发货"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"P0,P1,P2,P3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.4444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4444444444444" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.4" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" ht="57.6" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"注册,轮播图,购物车,登录,前台下单,后台发货"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"P0,P1,P2,P3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="11.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5555555555556" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.4" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" ht="43.2" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" ht="43.2" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/ShareFish测试用例.xlsx
+++ b/ShareFish测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9300" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="319">
   <si>
     <t>ID</t>
   </si>
@@ -1388,7 +1388,7 @@
     <t>chat_003</t>
   </si>
   <si>
-    <t>发送汉字、英文、数字、表情、特殊字符</t>
+    <t>发送空格</t>
   </si>
   <si>
     <t>1、选择消息框
@@ -1396,10 +1396,19 @@
 3、点击发送按钮</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>chat_004</t>
+  </si>
+  <si>
+    <t>发送汉字、英文、数字、表情、特殊字符</t>
+  </si>
+  <si>
     <t>你好lallalalalal212</t>
   </si>
   <si>
-    <t>chat_004</t>
+    <t>chat_005</t>
   </si>
   <si>
     <t>长度限制</t>
@@ -1408,7 +1417,7 @@
     <t>asdfghjkl</t>
   </si>
   <si>
-    <t>chat_005</t>
+    <t>chat_006</t>
   </si>
   <si>
     <t>接收消息</t>
@@ -1429,7 +1438,7 @@
     <t>消息接收成功</t>
   </si>
   <si>
-    <t>chat_006</t>
+    <t>chat_007</t>
   </si>
   <si>
     <t>删除消息</t>
@@ -1584,14 +1593,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,10 +1699,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1616,91 +1711,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1712,9 +1722,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1742,7 +1751,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,13 +1793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,13 +1805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,49 +1829,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,25 +1865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1886,13 +1883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1904,19 +1901,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1945,11 +1954,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1971,9 +1986,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1988,30 +2005,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2034,11 +2027,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2050,10 +2059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2062,138 +2071,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2210,22 +2219,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2558,13 +2555,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.88888888888889" style="9"/>
-    <col min="4" max="4" width="16.6666666666667" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.7777777777778" style="10" customWidth="1"/>
-    <col min="6" max="6" width="30" style="10" customWidth="1"/>
-    <col min="7" max="7" width="30.8888888888889" style="10" customWidth="1"/>
-    <col min="8" max="9" width="17.7777777777778" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="9"/>
+    <col min="1" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7777777777778" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30" style="5" customWidth="1"/>
+    <col min="7" max="7" width="30.8888888888889" style="5" customWidth="1"/>
+    <col min="8" max="9" width="17.7777777777778" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
@@ -2597,16 +2594,16 @@
       </c>
     </row>
     <row r="2" ht="117" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2618,24 +2615,24 @@
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2655,16 +2652,16 @@
       </c>
     </row>
     <row r="4" ht="100.8" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2684,16 +2681,16 @@
       </c>
     </row>
     <row r="5" ht="100.8" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2713,16 +2710,16 @@
       </c>
     </row>
     <row r="6" ht="100.8" spans="1:9">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2742,16 +2739,16 @@
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2771,16 +2768,16 @@
       </c>
     </row>
     <row r="8" ht="100.8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2800,16 +2797,16 @@
       </c>
     </row>
     <row r="9" ht="100.8" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2829,16 +2826,16 @@
       </c>
     </row>
     <row r="10" ht="100.8" spans="1:9">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2858,16 +2855,16 @@
       </c>
     </row>
     <row r="11" ht="100.8" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2887,16 +2884,16 @@
       </c>
     </row>
     <row r="12" ht="100.8" spans="1:9">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2916,16 +2913,16 @@
       </c>
     </row>
     <row r="13" ht="100.8" spans="1:9">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2945,16 +2942,16 @@
       </c>
     </row>
     <row r="14" ht="100.8" spans="1:9">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2974,16 +2971,16 @@
       </c>
     </row>
     <row r="15" ht="100.8" spans="1:9">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -3003,16 +3000,16 @@
       </c>
     </row>
     <row r="16" ht="100.8" spans="1:9">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3032,16 +3029,16 @@
       </c>
     </row>
     <row r="17" ht="100.8" spans="1:9">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3061,16 +3058,16 @@
       </c>
     </row>
     <row r="18" ht="100.8" spans="1:9">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3090,16 +3087,16 @@
       </c>
     </row>
     <row r="19" ht="100.8" spans="1:9">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3119,16 +3116,16 @@
       </c>
     </row>
     <row r="20" ht="100.8" spans="1:9">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3148,16 +3145,16 @@
       </c>
     </row>
     <row r="21" ht="100.8" spans="1:9">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3177,16 +3174,16 @@
       </c>
     </row>
     <row r="22" ht="100.8" spans="1:9">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -3201,21 +3198,21 @@
       <c r="H22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:9">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3230,21 +3227,21 @@
       <c r="H23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="100.8" spans="1:9">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -3264,16 +3261,16 @@
       </c>
     </row>
     <row r="25" ht="100.8" spans="1:9">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -3293,16 +3290,16 @@
       </c>
     </row>
     <row r="26" ht="100.8" spans="1:9">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -3322,16 +3319,16 @@
       </c>
     </row>
     <row r="27" ht="100.8" spans="1:9">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -3351,16 +3348,16 @@
       </c>
     </row>
     <row r="28" ht="100.8" spans="1:9">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3380,16 +3377,16 @@
       </c>
     </row>
     <row r="29" ht="100.8" spans="1:9">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -3409,16 +3406,16 @@
       </c>
     </row>
     <row r="30" ht="100.8" spans="1:9">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3438,16 +3435,16 @@
       </c>
     </row>
     <row r="31" ht="100.8" spans="1:9">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -3467,16 +3464,16 @@
       </c>
     </row>
     <row r="32" ht="100.8" spans="1:9">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3496,16 +3493,16 @@
       </c>
     </row>
     <row r="33" ht="100.8" spans="1:9">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -3525,16 +3522,16 @@
       </c>
     </row>
     <row r="34" ht="100.8" spans="1:9">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -3578,14 +3575,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="3" width="8.88888888888889" style="9"/>
-    <col min="4" max="4" width="23.3333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.5555555555556" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.5555555555556" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.8888888888889" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.8888888888889" style="10" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="9"/>
+    <col min="1" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5555555555556" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.8888888888889" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.8888888888889" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
@@ -3618,16 +3615,16 @@
       </c>
     </row>
     <row r="2" ht="72" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3639,24 +3636,24 @@
       <c r="G2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" ht="72" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -3676,16 +3673,16 @@
       </c>
     </row>
     <row r="4" ht="72" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3791,13 +3788,13 @@
       <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>170</v>
       </c>
       <c r="H2" t="s">
@@ -3820,19 +3817,19 @@
       <c r="D3" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3849,19 +3846,19 @@
       <c r="D4" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3878,19 +3875,19 @@
       <c r="D5" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3907,19 +3904,19 @@
       <c r="D6" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3936,19 +3933,19 @@
       <c r="D7" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3965,19 +3962,19 @@
       <c r="D8" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3994,19 +3991,19 @@
       <c r="D9" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4023,19 +4020,19 @@
       <c r="D10" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4052,19 +4049,19 @@
       <c r="D11" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4081,19 +4078,19 @@
       <c r="D12" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4110,19 +4107,19 @@
       <c r="D13" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4139,19 +4136,19 @@
       <c r="D14" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4168,19 +4165,19 @@
       <c r="D15" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4197,19 +4194,19 @@
       <c r="D16" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4226,19 +4223,19 @@
       <c r="D17" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4255,19 +4252,19 @@
       <c r="D18" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4284,19 +4281,19 @@
       <c r="D19" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4313,19 +4310,19 @@
       <c r="D20" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4404,13 +4401,13 @@
       <c r="D2" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>251</v>
       </c>
       <c r="H2" t="s">
@@ -4433,25 +4430,25 @@
       <c r="D3" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="4" spans="5:6">
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4470,13 +4467,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="3" width="8.88888888888889" style="1"/>
     <col min="4" max="4" width="16.2222222222222" style="1" customWidth="1"/>
@@ -4530,19 +4527,19 @@
       <c r="D2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4559,17 +4556,17 @@
       <c r="D3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4583,22 +4580,22 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4612,22 +4609,22 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4644,25 +4641,25 @@
       <c r="D6" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" ht="57.6" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>257</v>
@@ -4671,22 +4668,51 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="I7" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>283</v>
+      <c r="H8" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4708,7 +4734,7 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4756,271 +4782,271 @@
     </row>
     <row r="2" ht="43.2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>286</v>
+      <c r="I2" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>294</v>
+      <c r="F3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>294</v>
+      <c r="I4" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="5:9">
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/ShareFish测试用例.xlsx
+++ b/ShareFish测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9300" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="发布需求页" sheetId="4" r:id="rId4"/>
     <sheet name="消息详情" sheetId="5" r:id="rId5"/>
     <sheet name="充值余额" sheetId="6" r:id="rId6"/>
+    <sheet name="搜索页" sheetId="7" r:id="rId7"/>
+    <sheet name="确认交易页" sheetId="8" r:id="rId8"/>
+    <sheet name="归还物品页" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="545">
   <si>
     <t>ID</t>
   </si>
@@ -1558,16 +1561,948 @@
   <si>
     <t>金额：10.001</t>
   </si>
+  <si>
+    <t>sch_001</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>搜索成功</t>
+  </si>
+  <si>
+    <t>1、网络正常
+2、用户已登录
+3、点击搜索框</t>
+  </si>
+  <si>
+    <t>1、在搜索框光标闪烁处输入正确内容
+2、点击搜索按钮</t>
+  </si>
+  <si>
+    <t>相机</t>
+  </si>
+  <si>
+    <t>跳转搜索结果页成功</t>
+  </si>
+  <si>
+    <t>sch_002</t>
+  </si>
+  <si>
+    <t>搜索内容为空</t>
+  </si>
+  <si>
+    <t>1、在搜索框光标闪烁处输入搜索内容为空
+2、点击搜索按钮</t>
+  </si>
+  <si>
+    <t>跳转搜索结果页失败</t>
+  </si>
+  <si>
+    <t>sch_003</t>
+  </si>
+  <si>
+    <t>搜索内容为空格</t>
+  </si>
+  <si>
+    <t>1、在搜索框光标闪烁处输入内容
+2、点击搜索按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>sch_004</t>
+  </si>
+  <si>
+    <t>字符串长度</t>
+  </si>
+  <si>
+    <t>新款佳能相机2022高像素清晰性价比高</t>
+  </si>
+  <si>
+    <t>sch_005</t>
+  </si>
+  <si>
+    <t>搜索内容中间存在空格</t>
+  </si>
+  <si>
+    <t>佳能 相机</t>
+  </si>
+  <si>
+    <t>sch_006</t>
+  </si>
+  <si>
+    <t>搜索内容包含特殊符号</t>
+  </si>
+  <si>
+    <t>相机#</t>
+  </si>
+  <si>
+    <t>sch_007</t>
+  </si>
+  <si>
+    <t>回车键搜索</t>
+  </si>
+  <si>
+    <t>sch_008</t>
+  </si>
+  <si>
+    <t>搜索内容包含敏感词汇</t>
+  </si>
+  <si>
+    <t>毒品</t>
+  </si>
+  <si>
+    <t>sch_009</t>
+  </si>
+  <si>
+    <t>输入中文，英文，数字</t>
+  </si>
+  <si>
+    <t>iPad平板2021</t>
+  </si>
+  <si>
+    <t>sch_010</t>
+  </si>
+  <si>
+    <t>输入拼音</t>
+  </si>
+  <si>
+    <t>xiangji</t>
+  </si>
+  <si>
+    <t>sch_011</t>
+  </si>
+  <si>
+    <t>是否支持复制粘贴</t>
+  </si>
+  <si>
+    <t>sch_012</t>
+  </si>
+  <si>
+    <t>输入链接</t>
+  </si>
+  <si>
+    <t>confirm_001</t>
+  </si>
+  <si>
+    <t>确认交易</t>
+  </si>
+  <si>
+    <t>成功同意交易</t>
+  </si>
+  <si>
+    <t>1、网络正常
+2、用户已登录
+3、打开确认交易页</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>确认交易成功</t>
+  </si>
+  <si>
+    <t>confirm_002</t>
+  </si>
+  <si>
+    <t>成功不同意交易</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言
+4、点击不同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲不好意思已借出。</t>
+  </si>
+  <si>
+    <t>不同意交易成功</t>
+  </si>
+  <si>
+    <t>confirm_003</t>
+  </si>
+  <si>
+    <t>交易ID为空</t>
+  </si>
+  <si>
+    <t>1、输入交易ID为空
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>确认交易失败</t>
+  </si>
+  <si>
+    <t>confirm_004</t>
+  </si>
+  <si>
+    <t>交易ID不存在</t>
+  </si>
+  <si>
+    <t>1、输入交易ID不存在
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d5107721
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_005</t>
+  </si>
+  <si>
+    <t>交易ID包含空格</t>
+  </si>
+  <si>
+    <t>1、输入交易ID包含空格
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0x D0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_006</t>
+  </si>
+  <si>
+    <t>交易ID长度限制</t>
+  </si>
+  <si>
+    <t>1、输入交易ID过短或过长
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E111
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_007</t>
+  </si>
+  <si>
+    <t>交易ID纯数字</t>
+  </si>
+  <si>
+    <t>1、输入交易ID为纯数字
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：123456789
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_008</t>
+  </si>
+  <si>
+    <t>交易ID纯字母</t>
+  </si>
+  <si>
+    <t>1、输入交易ID为纯字母
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：qwertyuiop
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_009</t>
+  </si>
+  <si>
+    <t>交易ID包含中文</t>
+  </si>
+  <si>
+    <t>1、输入交易ID包含中文
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>confirm_010</t>
+  </si>
+  <si>
+    <t>交易ID包含特殊字符</t>
+  </si>
+  <si>
+    <t>1、输入交易ID包含特殊字符
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E#￥
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_011</t>
+  </si>
+  <si>
+    <t>交易ID是否区分大小写</t>
+  </si>
+  <si>
+    <t>1、输入交易ID不区分大小写
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6f94f23b491cf8e85ede39fce9150f9a892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_012</t>
+  </si>
+  <si>
+    <t>交易ID是否支持复制粘贴</t>
+  </si>
+  <si>
+    <t>1、复制交易ID并粘贴
+2、输入正确的商品ID
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>confirm_013</t>
+  </si>
+  <si>
+    <t>商品ID为空</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID为空
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>confirm_014</t>
+  </si>
+  <si>
+    <t>商品ID不存在</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID不存在
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x1F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_015</t>
+  </si>
+  <si>
+    <t>商品ID包含空格</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID包含空格
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x 6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_016</t>
+  </si>
+  <si>
+    <t>商品ID长度限制</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID过短或过长
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8111
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_017</t>
+  </si>
+  <si>
+    <t>商品ID纯数字</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID为纯数字
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：123456789
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_018</t>
+  </si>
+  <si>
+    <t>商品ID纯字母</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID为纯字母
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：qwertyuiop
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_019</t>
+  </si>
+  <si>
+    <t>商品ID包含中文</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID包含中文
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8可
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_020</t>
+  </si>
+  <si>
+    <t>商品ID包含特殊字符</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID包含特殊字符
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8#$
+3、留言：亲给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_021</t>
+  </si>
+  <si>
+    <t>商品ID是否区分大小写</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID不区分大小写
+3、输入留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>confirm_022</t>
+  </si>
+  <si>
+    <t>商品ID是否支持复制粘贴</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、复制商品ID并粘贴
+3、输入正确的留言
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>confirm_023</t>
+  </si>
+  <si>
+    <t>留言为空</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言为空
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：</t>
+  </si>
+  <si>
+    <t>confirm_024</t>
+  </si>
+  <si>
+    <t>留言为空格</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言为空格
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言： </t>
+  </si>
+  <si>
+    <t>confirm_025</t>
+  </si>
+  <si>
+    <t>留言包含空格</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言包含空格
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲 给个好评噢！</t>
+  </si>
+  <si>
+    <t>confirm_026</t>
+  </si>
+  <si>
+    <t>留言包含汉字、英文、数字、表情、特殊字符</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言包含汉字、英文、数字、表情、特殊字符
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢##！</t>
+  </si>
+  <si>
+    <t>confirm_027</t>
+  </si>
+  <si>
+    <t>留言长度限制</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言过短或过长
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：亲给个好评噢d...！</t>
+  </si>
+  <si>
+    <t>confirm_028</t>
+  </si>
+  <si>
+    <t>留言是否支持复制粘贴</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、复制留言并粘贴
+4、点击同意按钮</t>
+  </si>
+  <si>
+    <t>back_001</t>
+  </si>
+  <si>
+    <t>归还物品</t>
+  </si>
+  <si>
+    <t>归还成功</t>
+  </si>
+  <si>
+    <t>1、网络正常
+2、用户已登录
+3、打开归还物品页</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_002</t>
+  </si>
+  <si>
+    <t>1、输入交易ID为空
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>归还失败</t>
+  </si>
+  <si>
+    <t>back_003</t>
+  </si>
+  <si>
+    <t>1、输入交易ID不存在
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d5107721
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_004</t>
+  </si>
+  <si>
+    <t>1、输入交易ID包含空格
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0x D0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_005</t>
+  </si>
+  <si>
+    <t>1、输入交易ID过短或过长
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E111
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_006</t>
+  </si>
+  <si>
+    <t>1、输入交易ID为纯数字
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：123456789
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_007</t>
+  </si>
+  <si>
+    <t>1、输入交易ID为纯字母
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：qwertyuiop
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_008</t>
+  </si>
+  <si>
+    <t>1、输入交易ID包含中文
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>back_009</t>
+  </si>
+  <si>
+    <t>1、输入交易ID包含特殊字符
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E#￥
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_010</t>
+  </si>
+  <si>
+    <t>1、输入交易ID不区分大小写
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6f94f23b491cf8e85ede39fce9150f9a892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_011</t>
+  </si>
+  <si>
+    <t>1、复制交易ID并粘贴
+2、输入正确的商品ID
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>back_012</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID为空
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>back_013</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID不存在
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x1F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_014</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID包含空格
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x 6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_015</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID过短或过长
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8111
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_016</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID为纯数字
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：123456789
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_017</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID为纯字母
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：qwertyuiop
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_018</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID包含中文
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8可
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_019</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID包含特殊字符
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8#$
+3、留言：谢谢亲！</t>
+  </si>
+  <si>
+    <t>back_020</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入商品ID不区分大小写
+3、输入留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>back_021</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、复制商品ID并粘贴
+3、输入正确的留言
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>back_022</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言为空
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>back_023</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言为空格
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>back_024</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言包含空格
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>back_025</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言包含汉字、英文、数字、表情、特殊字符
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲##！</t>
+  </si>
+  <si>
+    <t>back_026</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、输入留言过短或过长
+4、点击归还按钮</t>
+  </si>
+  <si>
+    <t>1、交易ID：0xD0A0760aa68E998f504e6C0f8Dab1969d510665E
+2、商品ID：0x6F94F23b491cF8e85EdE39fCe9150f9A892356a8
+3、留言：谢谢亲d...！</t>
+  </si>
+  <si>
+    <t>back_027</t>
+  </si>
+  <si>
+    <t>1、输入正确的交易ID
+2、输入正确的商品ID
+3、复制留言并粘贴
+4、点击归还按钮</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1585,10 +2520,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1599,9 +2534,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1614,26 +2555,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1652,9 +2577,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1662,24 +2587,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1707,8 +2625,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,6 +2641,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1729,8 +2656,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1751,13 +2686,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,13 +2728,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,7 +2800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,25 +2812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,91 +2824,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1926,6 +2843,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1955,21 +2890,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1980,32 +2900,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2043,11 +2937,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2059,10 +2994,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2071,143 +3006,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2219,7 +3157,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2549,47 +3499,47 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="8.88888888888889" style="1"/>
     <col min="4" max="4" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7777777777778" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30" style="5" customWidth="1"/>
-    <col min="7" max="7" width="30.8888888888889" style="5" customWidth="1"/>
-    <col min="8" max="9" width="17.7777777777778" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.7777777777778" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30" style="7" customWidth="1"/>
+    <col min="7" max="7" width="30.8888888888889" style="7" customWidth="1"/>
+    <col min="8" max="9" width="17.7777777777778" style="7" customWidth="1"/>
     <col min="10" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2603,22 +3553,22 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2635,19 +3585,19 @@
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2664,19 +3614,19 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2693,19 +3643,19 @@
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2722,19 +3672,19 @@
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2751,19 +3701,19 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2780,19 +3730,19 @@
       <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2809,19 +3759,19 @@
       <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2838,19 +3788,19 @@
       <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2867,19 +3817,19 @@
       <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2896,19 +3846,19 @@
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2925,19 +3875,19 @@
       <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2954,19 +3904,19 @@
       <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2983,19 +3933,19 @@
       <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3012,19 +3962,19 @@
       <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3041,19 +3991,19 @@
       <c r="D17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3070,19 +4020,19 @@
       <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3099,19 +4049,19 @@
       <c r="D19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3128,19 +4078,19 @@
       <c r="D20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3157,19 +4107,19 @@
       <c r="D21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3186,19 +4136,19 @@
       <c r="D22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3215,19 +4165,19 @@
       <c r="D23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3244,19 +4194,19 @@
       <c r="D24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3273,19 +4223,19 @@
       <c r="D25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3302,19 +4252,19 @@
       <c r="D26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3331,19 +4281,19 @@
       <c r="D27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3360,19 +4310,19 @@
       <c r="D28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3389,19 +4339,19 @@
       <c r="D29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3418,19 +4368,19 @@
       <c r="D30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3447,19 +4397,19 @@
       <c r="D31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3476,19 +4426,19 @@
       <c r="D32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3505,19 +4455,19 @@
       <c r="D33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3534,19 +4484,19 @@
       <c r="D34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3578,39 +4528,39 @@
     <col min="1" max="3" width="8.88888888888889" style="1"/>
     <col min="4" max="4" width="23.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5555555555556" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.8888888888889" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.8888888888889" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5555555555556" style="7" customWidth="1"/>
+    <col min="7" max="7" width="22.8888888888889" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.8888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="7" customWidth="1"/>
     <col min="10" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3627,19 +4577,19 @@
       <c r="D2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3656,19 +4606,19 @@
       <c r="D3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3685,33 +4635,33 @@
       <c r="D4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3747,31 +4697,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3788,13 +4738,13 @@
       <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>170</v>
       </c>
       <c r="H2" t="s">
@@ -3817,19 +4767,19 @@
       <c r="D3" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3846,19 +4796,19 @@
       <c r="D4" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3875,19 +4825,19 @@
       <c r="D5" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3904,19 +4854,19 @@
       <c r="D6" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3933,19 +4883,19 @@
       <c r="D7" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3962,19 +4912,19 @@
       <c r="D8" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3991,19 +4941,19 @@
       <c r="D9" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4020,19 +4970,19 @@
       <c r="D10" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4049,19 +4999,19 @@
       <c r="D11" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4078,19 +5028,19 @@
       <c r="D12" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4107,19 +5057,19 @@
       <c r="D13" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4136,19 +5086,19 @@
       <c r="D14" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4165,19 +5115,19 @@
       <c r="D15" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4194,19 +5144,19 @@
       <c r="D16" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4223,19 +5173,19 @@
       <c r="D17" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4252,19 +5202,19 @@
       <c r="D18" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4281,19 +5231,19 @@
       <c r="D19" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4310,19 +5260,19 @@
       <c r="D20" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="11" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4345,7 +5295,7 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4360,31 +5310,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4401,13 +5351,13 @@
       <c r="D2" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H2" t="s">
@@ -4430,25 +5380,25 @@
       <c r="D3" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="4" spans="5:6">
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4469,8 +5419,8 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -4486,31 +5436,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4527,19 +5477,19 @@
       <c r="D2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4556,17 +5506,17 @@
       <c r="D3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4580,22 +5530,22 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4609,22 +5559,22 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4641,19 +5591,19 @@
       <c r="D6" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4670,19 +5620,19 @@
       <c r="D7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4699,19 +5649,19 @@
       <c r="D8" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4735,7 +5685,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4752,31 +5702,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4793,19 +5743,19 @@
       <c r="D2" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4822,19 +5772,19 @@
       <c r="D3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4851,19 +5801,19 @@
       <c r="D4" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4880,19 +5830,19 @@
       <c r="D5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4909,19 +5859,19 @@
       <c r="D6" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4938,19 +5888,19 @@
       <c r="D7" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4967,19 +5917,19 @@
       <c r="D8" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4996,19 +5946,19 @@
       <c r="D9" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5025,28 +5975,2168 @@
       <c r="D10" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>295</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"注册,轮播图,购物车,登录,前台下单,后台发货"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"P0,P1,P2,P3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="8.88888888888889" style="8"/>
+    <col min="4" max="4" width="23.1111111111111" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.3333333333333" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.5555555555556" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20" style="9" customWidth="1"/>
+    <col min="9" max="9" width="20.6666666666667" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="23.4" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:9">
+      <c r="A7" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" ht="43.2" spans="1:9">
+      <c r="A9" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" ht="43.2" spans="1:9">
+      <c r="A10" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" ht="43.2" spans="1:9">
+      <c r="A11" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:9">
+      <c r="A12" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" ht="43.2" spans="1:9">
+      <c r="A13" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"注册,轮播图,购物车,登录,前台下单,后台发货"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"P0,P1,P2,P3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:I$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="24.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="27.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.8888888888889" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="23.4" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="112" customHeight="1" spans="1:9">
+      <c r="A2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" ht="115.2" spans="1:9">
+      <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:9">
+      <c r="A4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" ht="100.8" spans="1:9">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" ht="100.8" spans="1:9">
+      <c r="A6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" ht="100.8" spans="1:9">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="1:9">
+      <c r="A8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" ht="72" spans="1:9">
+      <c r="A9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" ht="100.8" spans="1:9">
+      <c r="A10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9">
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+        <v>363</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" ht="100.8" spans="1:9">
+      <c r="A11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" ht="100.8" spans="1:9">
+      <c r="A12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" ht="100.8" spans="1:9">
+      <c r="A13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" ht="100.8" spans="1:9">
+      <c r="A14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" ht="100.8" spans="1:9">
+      <c r="A15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" ht="100.8" spans="1:9">
+      <c r="A16" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>417</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" ht="100.8" spans="1:9">
+      <c r="A17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" ht="72" spans="1:9">
+      <c r="A18" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>425</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" ht="72" spans="1:9">
+      <c r="A19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" ht="100.8" spans="1:9">
+      <c r="A20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>433</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" ht="100.8" spans="1:9">
+      <c r="A21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>437</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" ht="100.8" spans="1:9">
+      <c r="A22" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" ht="100.8" spans="1:9">
+      <c r="A23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" ht="100.8" spans="1:9">
+      <c r="A24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>447</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" ht="100.8" spans="1:9">
+      <c r="A25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" ht="100.8" spans="1:9">
+      <c r="A26" t="s">
+        <v>454</v>
+      </c>
+      <c r="B26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" ht="115.2" spans="1:9">
+      <c r="A27" t="s">
+        <v>458</v>
+      </c>
+      <c r="B27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" ht="115.2" spans="1:9">
+      <c r="A28" t="s">
+        <v>462</v>
+      </c>
+      <c r="B28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" ht="100.8" spans="1:9">
+      <c r="A29" t="s">
+        <v>466</v>
+      </c>
+      <c r="B29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="1"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"注册,轮播图,购物车,登录,前台下单,后台发货"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"P0,P1,P2,P3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="11.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="23.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="19.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="27.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.8888888888889" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="23.4" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="100.8" spans="1:9">
+      <c r="A2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="1:9">
+      <c r="A3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" ht="100.8" spans="1:9">
+      <c r="A4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" ht="100.8" spans="1:9">
+      <c r="A5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" ht="100.8" spans="1:9">
+      <c r="A6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" ht="72" spans="1:9">
+      <c r="A7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="1:9">
+      <c r="A8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" ht="100.8" spans="1:9">
+      <c r="A9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" ht="100.8" spans="1:9">
+      <c r="A10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" ht="100.8" spans="1:9">
+      <c r="A11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" ht="100.8" spans="1:9">
+      <c r="A12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>407</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" ht="100.8" spans="1:9">
+      <c r="A13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>410</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" ht="100.8" spans="1:9">
+      <c r="A14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B14" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" ht="100.8" spans="1:9">
+      <c r="A15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>417</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" ht="100.8" spans="1:9">
+      <c r="A16" t="s">
+        <v>512</v>
+      </c>
+      <c r="B16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" ht="72" spans="1:9">
+      <c r="A17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B17" t="s">
+        <v>470</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>425</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" ht="72" spans="1:9">
+      <c r="A18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" ht="100.8" spans="1:9">
+      <c r="A19" t="s">
+        <v>521</v>
+      </c>
+      <c r="B19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>433</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" ht="100.8" spans="1:9">
+      <c r="A20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>437</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" ht="100.8" spans="1:9">
+      <c r="A21" t="s">
+        <v>527</v>
+      </c>
+      <c r="B21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>441</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" ht="100.8" spans="1:9">
+      <c r="A22" t="s">
+        <v>529</v>
+      </c>
+      <c r="B22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="23" ht="100.8" spans="1:9">
+      <c r="A23" t="s">
+        <v>531</v>
+      </c>
+      <c r="B23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" ht="100.8" spans="1:9">
+      <c r="A24" t="s">
+        <v>533</v>
+      </c>
+      <c r="B24" t="s">
+        <v>470</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" ht="100.8" spans="1:9">
+      <c r="A25" t="s">
+        <v>535</v>
+      </c>
+      <c r="B25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" ht="100.8" spans="1:9">
+      <c r="A26" t="s">
+        <v>537</v>
+      </c>
+      <c r="B26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" ht="100.8" spans="1:9">
+      <c r="A27" t="s">
+        <v>540</v>
+      </c>
+      <c r="B27" t="s">
+        <v>470</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" ht="100.8" spans="1:9">
+      <c r="A28" t="s">
+        <v>543</v>
+      </c>
+      <c r="B28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
